--- a/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200215.xlsx
+++ b/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200215.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐荣安\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐荣安\Desktop\宁夏 山东数据收集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE8108-676A-417D-BE30-F014431C8973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E169F5A-4EE2-4503-92AB-16CA8B370502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10956,8 +10956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
@@ -11463,15 +11463,9 @@
         <v>50</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="18">
-        <v>46</v>
-      </c>
-      <c r="O7" s="18">
-        <v>13</v>
-      </c>
+      <c r="K7" s="19"/>
+      <c r="M7" s="18"/>
+      <c r="O7" s="18"/>
       <c r="S7" s="11" t="s">
         <v>43</v>
       </c>
@@ -11522,16 +11516,13 @@
       </c>
       <c r="I8" s="19"/>
       <c r="K8" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="18">
-        <v>43</v>
-      </c>
-      <c r="N8" s="11">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O8" s="18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>43</v>
@@ -11585,16 +11576,16 @@
         <v>1</v>
       </c>
       <c r="K9" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N9" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" s="18">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>43</v>
@@ -11648,16 +11639,16 @@
         <v>2</v>
       </c>
       <c r="K10" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" s="18">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N10" s="11">
         <v>3</v>
       </c>
       <c r="O10" s="18">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>43</v>
@@ -11711,12 +11702,17 @@
       <c r="J11" s="11">
         <v>1</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
       <c r="M11" s="18">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="N11" s="11">
+        <v>3</v>
       </c>
       <c r="O11" s="18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>43</v>
@@ -11767,14 +11763,12 @@
         <v>55</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="K12" s="19">
-        <v>1</v>
-      </c>
+      <c r="K12" s="19"/>
       <c r="M12" s="18">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="O12" s="18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>43</v>
@@ -11828,16 +11822,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" s="18">
-        <v>47</v>
-      </c>
-      <c r="N13" s="11">
+        <v>16</v>
+      </c>
+      <c r="O13" s="18">
         <v>3</v>
-      </c>
-      <c r="O13" s="18">
-        <v>29</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>43</v>
@@ -11891,15 +11882,17 @@
       <c r="J14" s="11">
         <v>1</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="19">
+        <v>4</v>
+      </c>
       <c r="M14" s="18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N14" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" s="20">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>43</v>
@@ -11952,17 +11945,15 @@
       <c r="I15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="19"/>
+      <c r="M15" s="18">
+        <v>37</v>
+      </c>
+      <c r="N15" s="11">
+        <v>5</v>
+      </c>
+      <c r="O15" s="18">
         <v>7</v>
-      </c>
-      <c r="M15" s="18">
-        <v>38</v>
-      </c>
-      <c r="N15" s="11">
-        <v>3</v>
-      </c>
-      <c r="O15" s="18">
-        <v>10</v>
       </c>
       <c r="P15" s="11">
         <v>1</v>
@@ -12017,13 +12008,16 @@
       </c>
       <c r="I16" s="19"/>
       <c r="K16" s="19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M16" s="18">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="N16" s="11">
+        <v>3</v>
       </c>
       <c r="O16" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>43</v>
@@ -12075,13 +12069,13 @@
       </c>
       <c r="I17" s="19"/>
       <c r="K17" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O17" s="18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>43</v>
@@ -12130,6 +12124,15 @@
       </c>
       <c r="G18" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>18</v>
+      </c>
+      <c r="O18" s="11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -12141,7 +12144,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G19:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 J2:J17 L3:L17 N3:N17 I18:R1048576 P3:R17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 J2:J17 L3:L17 N3:N17 P3:R17 I18:J1048576 L18:R1048576 K19:K1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
